--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,189 +427,723 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã nhân viên</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 1 bác sĩ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 2 bác sĩ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Số lần phụ phẫu 1</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Số lần phụ phẫu 2</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Doanh số thu nợ</t>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25000000</v>
+        <v>505</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>516</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>thạch thuỳ lương</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+      <c r="T3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>519</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>21500000</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>520</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>521</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>522</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Làm má Lúm</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>528</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>800000</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>529</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,83 +1168,325 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Phân loại</t>
+          <t>Mã nhân viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Lượng chi</t>
+          <t>Doanh số sale chính</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Doanh số upsale</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 1 bác sĩ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 2 bác sĩ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Doanh số thu nợ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5000000</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1806000</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1000000</v>
+        <v>800000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6250000</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400000</v>
+        <v>7000000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28500000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tổng cộng</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14456000</v>
+        <v>66000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73800000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59800000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16000000</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +1500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,30 +1511,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày</t>
+          <t>Phân loại</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Số lượng đơn</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Thu nợ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>Lượng chi</t>
         </is>
@@ -766,6 +1523,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17650000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4544000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2873000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tổng cộng</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>37717000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Số lượng đơn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>07-01-2024</t>
         </is>
       </c>
@@ -832,23 +1730,89 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22976000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>800000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14456000</v>
+      <c r="B8" t="n">
+        <v>73800000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37717000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CHI TIẾT CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,17 +428,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Tiền tố</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -529,16 +530,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>505</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -597,16 +598,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>516</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07-02-2024</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -677,16 +678,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>519</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -757,16 +758,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>520</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -835,16 +836,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>521</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,16 +914,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>522</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>07-05-2024</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -991,16 +992,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>528</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1069,16 +1070,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>529</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1152,6 +1153,449 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã chi tiêu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày chi</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Phân loại</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>584</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>585</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>586</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>587</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>588</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>589</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1506000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>601</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>602</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>603</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4544000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>604</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>605</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>606</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>782000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>607</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1494,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1615,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,6 +1146,48 @@
       <c r="T9" t="n">
         <v/>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>73800000</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>73800000</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1158,7 +1200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,6 +1630,22 @@
       </c>
       <c r="F15" t="n">
         <v>285000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>37717000</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2162,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lũy kế ngày</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2126,6 +2189,9 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2148,6 +2214,9 @@
       <c r="F3" t="n">
         <v>12950000</v>
       </c>
+      <c r="G3" t="n">
+        <v>12050000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2170,6 +2239,9 @@
       <c r="F4" t="n">
         <v>1506000</v>
       </c>
+      <c r="G4" t="n">
+        <v>-1506000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2192,6 +2264,9 @@
       <c r="F5" t="n">
         <v>22976000</v>
       </c>
+      <c r="G5" t="n">
+        <v>30024000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2214,6 +2289,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2236,6 +2314,9 @@
       <c r="F7" t="n">
         <v>285000</v>
       </c>
+      <c r="G7" t="n">
+        <v>7715000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2257,6 +2338,9 @@
       </c>
       <c r="F8" t="n">
         <v>37717000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48283000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,16 +1049,16 @@
         <v/>
       </c>
       <c r="O8" t="n">
-        <v/>
+        <v>800000</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="R8" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v/>
@@ -1130,13 +1130,13 @@
         <v>4000000</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="Q9" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="R9" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1148,46 +1148,598 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>532</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ngô  xuân nghi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>688000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>688000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>688000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>688000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>537</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dương thị lệ </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>541</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">xuân diệu </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>553</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>554</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cắt sẹo </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>lê thị bích</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>561</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">diệp ngọc anh </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>800000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>562</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trần yến vi </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>73800000</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>73800000</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3800000</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>115788000</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>122588000</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>112988000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>120988000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1200,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1635,17 +2187,437 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>612</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>620</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>621</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>627</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>628</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>635</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>642</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>643</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>644</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>645</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>646</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>647</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>648</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>653</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>654</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>82500000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>37717000</v>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>130992000</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +2631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1732,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5500000</v>
+        <v>7800000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1766,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25000000</v>
+        <v>38000000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1794,22 +2766,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="C4" t="n">
         <v>800000</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>800000</v>
+        <v>4288000</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1818,17 +2790,17 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>688000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1852,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1892,17 +2864,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D7" t="n">
-        <v>28500000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1920,23 +2892,23 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66000000</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28500000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1948,47 +2920,183 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J8" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>73800000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>59800000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16000000</v>
+      <c r="B13" t="n">
+        <v>114288000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>108588000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>350000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25000000</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +3110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,7 +3137,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17650000</v>
+        <v>19750000</v>
       </c>
     </row>
     <row r="3">
@@ -2039,7 +3147,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4544000</v>
+        <v>87044000</v>
       </c>
     </row>
     <row r="4">
@@ -2049,7 +3157,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2873000</v>
+        <v>3443000</v>
       </c>
     </row>
     <row r="5">
@@ -2059,7 +3167,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2300000</v>
+        <v>4105000</v>
       </c>
     </row>
     <row r="6">
@@ -2069,7 +3177,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6250000</v>
+        <v>10100000</v>
       </c>
     </row>
     <row r="7">
@@ -2089,27 +3197,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3500000</v>
+        <v>3950000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>37717000</v>
+      <c r="B11" t="n">
+        <v>130992000</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +3241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,7 +3396,7 @@
         <v>800000</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2290,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="7">
@@ -2321,26 +3439,201 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>688000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>688000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>345000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1855000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7690000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30310000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>82640000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-82640000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>73800000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>37717000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48283000</v>
+      <c r="B15" t="n">
+        <v>122588000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>112988000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>130992000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6996000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,11 +526,21 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -539,27 +549,35 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v/>
-      </c>
-      <c r="F2" t="n">
-        <v/>
-      </c>
-      <c r="G2" t="n">
-        <v/>
-      </c>
-      <c r="H2" t="n">
-        <v/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>thạch thuỳ lương</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v/>
+        <v>25000000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -568,37 +586,47 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v/>
+        <v>25000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v/>
       </c>
       <c r="O2" t="n">
-        <v/>
+        <v>25000000</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -607,7 +635,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -616,12 +644,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Treo cung</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -635,7 +663,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="J3" t="n">
         <v/>
@@ -644,24 +672,24 @@
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N3" t="n">
         <v/>
       </c>
       <c r="O3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -673,6 +701,12 @@
       </c>
       <c r="T3" t="n">
         <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -687,7 +721,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -701,7 +735,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -715,7 +749,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="J4" t="n">
         <v/>
@@ -724,24 +758,22 @@
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>11000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
       </c>
       <c r="N4" t="n">
         <v/>
       </c>
       <c r="O4" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -753,6 +785,12 @@
       </c>
       <c r="T4" t="n">
         <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -767,7 +805,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -776,7 +814,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun môi</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -795,7 +833,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="J5" t="n">
         <v/>
@@ -804,33 +842,39 @@
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v/>
+        <v>5500000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v/>
       </c>
       <c r="O5" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S5" t="n">
+        <v/>
       </c>
       <c r="T5" t="n">
         <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -845,7 +889,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -854,12 +898,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phun môi</t>
+          <t>Làm má Lúm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -873,7 +917,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -882,39 +926,45 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v/>
       </c>
       <c r="N6" t="n">
         <v/>
       </c>
       <c r="O6" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="n">
-        <v/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T6" t="n">
         <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -923,7 +973,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -932,26 +982,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Làm má Lúm</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="J7" t="n">
         <v/>
@@ -960,39 +1010,45 @@
         <v/>
       </c>
       <c r="L7" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v/>
+        <v>800000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v/>
       </c>
       <c r="O7" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3000000</v>
+        <v>800000</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S7" t="n">
+        <v/>
       </c>
       <c r="T7" t="n">
         <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1001,7 +1057,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1010,12 +1066,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1025,52 +1081,60 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>800000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v>800000</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v>800000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>800000</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
       <c r="T8" t="n">
         <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1079,7 +1143,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1088,12 +1152,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1103,11 +1167,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="J9" t="n">
         <v/>
@@ -1116,41 +1180,45 @@
         <v/>
       </c>
       <c r="L9" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="N9" t="n">
         <v/>
       </c>
       <c r="O9" t="n">
-        <v>4000000</v>
+        <v>688000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
       </c>
       <c r="T9" t="n">
         <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1159,7 +1227,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1168,26 +1236,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v/>
       </c>
       <c r="I10" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="J10" t="n">
         <v/>
@@ -1196,24 +1262,24 @@
         <v/>
       </c>
       <c r="L10" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v/>
       </c>
       <c r="O10" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1222,13 +1288,19 @@
         <v/>
       </c>
       <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1237,7 +1309,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1246,24 +1318,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="J11" t="n">
         <v/>
@@ -1272,24 +1346,24 @@
         <v/>
       </c>
       <c r="L11" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="N11" t="n">
         <v/>
       </c>
       <c r="O11" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1299,12 +1373,18 @@
       </c>
       <c r="T11" t="n">
         <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1313,7 +1393,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1322,12 +1402,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1337,11 +1417,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1200000</v>
+        <v>30000000</v>
       </c>
       <c r="J12" t="n">
         <v/>
@@ -1350,33 +1430,43 @@
         <v/>
       </c>
       <c r="L12" t="n">
-        <v>1200000</v>
+        <v>30000000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="13">
@@ -1391,7 +1481,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1400,12 +1490,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t xml:space="preserve">cắt sẹo </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1415,56 +1505,62 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
       <c r="K13" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="N13" t="n">
         <v/>
       </c>
       <c r="O13" t="n">
-        <v>25000000</v>
+        <v>13000000</v>
       </c>
       <c r="P13" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07-15-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1473,7 +1569,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1482,71 +1578,73 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">cắt sẹo </t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v/>
       </c>
       <c r="I14" t="n">
-        <v>7000000</v>
+        <v>500000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6000000</v>
+        <v>800000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N14" t="n">
         <v/>
       </c>
       <c r="O14" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
+      <c r="S14" t="n">
+        <v/>
       </c>
       <c r="T14" t="n">
         <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1555,7 +1653,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1564,52 +1662,52 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="I15" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J15" t="inlineStr">
+        <v>1600000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>800000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
       <c r="N15" t="n">
         <v/>
       </c>
       <c r="O15" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1619,12 +1717,18 @@
       </c>
       <c r="T15" t="n">
         <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1633,7 +1737,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,12 +1746,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1657,89 +1761,273 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
       <c r="T16" t="n">
         <v/>
       </c>
+      <c r="U16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>569</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>diệp thị mỹ hiền</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>570</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>đặng thị mỹ ngọc</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>115788000</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>6800000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>122588000</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>112988000</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>135788000</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9800000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>145588000</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>137588000</v>
+      </c>
+      <c r="P19" t="n">
         <v>8000000</v>
       </c>
-      <c r="Q17" t="n">
-        <v>120988000</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>145588000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>600000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1752,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2607,17 +2895,185 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>660</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>662</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>663</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>664</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>665</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>666</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>130992000</v>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>141172000</v>
       </c>
     </row>
   </sheetData>
@@ -2647,12 +3103,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Tổng đơn giá sale vòng 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Tổng đơn giá vòng upsale</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2778,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2834,13 +3290,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7000000</v>
+        <v>27000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2858,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2871,7 +3327,7 @@
         <v>37000000</v>
       </c>
       <c r="C7" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2942,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3062,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="13">
@@ -3072,22 +3528,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114288000</v>
+        <v>134288000</v>
       </c>
       <c r="C13" t="n">
-        <v>6800000</v>
+        <v>9800000</v>
       </c>
       <c r="D13" t="n">
-        <v>108588000</v>
+        <v>131588000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -3137,7 +3593,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19750000</v>
+        <v>20840000</v>
       </c>
     </row>
     <row r="3">
@@ -3147,7 +3603,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87044000</v>
+        <v>87344000</v>
       </c>
     </row>
     <row r="4">
@@ -3157,7 +3613,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3443000</v>
+        <v>3733000</v>
       </c>
     </row>
     <row r="5">
@@ -3207,7 +3663,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="10">
@@ -3227,7 +3683,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130992000</v>
+        <v>141172000</v>
       </c>
     </row>
   </sheetData>
@@ -3289,14 +3745,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -3305,148 +3761,148 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12950000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12050000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12950000</v>
+        <v>1506000</v>
       </c>
       <c r="G3" t="n">
-        <v>12050000</v>
+        <v>-1506000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41000000</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41000000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1506000</v>
+        <v>22976000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1506000</v>
+        <v>30024000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41000000</v>
+        <v>800000</v>
       </c>
       <c r="C5" t="n">
-        <v>41000000</v>
+        <v>800000</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22976000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30024000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800000</v>
+        <v>7000000</v>
       </c>
       <c r="C6" t="n">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G6" t="n">
-        <v>800000</v>
+        <v>7715000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="C7" t="n">
-        <v>4000000</v>
+        <v>688000</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>285000</v>
+        <v>500000</v>
       </c>
       <c r="G7" t="n">
-        <v>7715000</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="C8" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -3455,160 +3911,160 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="G8" t="n">
-        <v>188000</v>
+        <v>-300000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="C9" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F9" t="n">
-        <v>1300000</v>
+        <v>345000</v>
       </c>
       <c r="G9" t="n">
-        <v>-300000</v>
+        <v>1855000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-13-2024</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="F10" t="n">
-        <v>345000</v>
+        <v>800000</v>
       </c>
       <c r="G10" t="n">
-        <v>1855000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07-13-2024</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>43000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38000000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>800000</v>
+        <v>7690000</v>
       </c>
       <c r="G11" t="n">
-        <v>2200000</v>
+        <v>30310000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07-15-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43000000</v>
+        <v>1300000</v>
       </c>
       <c r="C12" t="n">
-        <v>38000000</v>
+        <v>1300000</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="F12" t="n">
-        <v>7690000</v>
+        <v>390000</v>
       </c>
       <c r="G12" t="n">
-        <v>30310000</v>
+        <v>5910000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="C13" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82640000</v>
       </c>
       <c r="G13" t="n">
-        <v>6300000</v>
+        <v>-81040000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1600000</v>
+        <v>23000000</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>82640000</v>
+        <v>9790000</v>
       </c>
       <c r="G14" t="n">
-        <v>-82640000</v>
+        <v>13210000</v>
       </c>
     </row>
     <row r="15">
@@ -3618,22 +4074,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122588000</v>
+        <v>145588000</v>
       </c>
       <c r="C15" t="n">
-        <v>112988000</v>
+        <v>137588000</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>25000000</v>
       </c>
       <c r="F15" t="n">
-        <v>130992000</v>
+        <v>141172000</v>
       </c>
       <c r="G15" t="n">
-        <v>6996000</v>
+        <v>21416000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -760,8 +760,10 @@
       <c r="L4" t="n">
         <v>11000000</v>
       </c>
-      <c r="M4" t="n">
-        <v/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v/>
@@ -928,8 +930,10 @@
       <c r="L6" t="n">
         <v>3000000</v>
       </c>
-      <c r="M6" t="n">
-        <v/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v/>
@@ -3364,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28500000</v>
+        <v>42500000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3534,7 +3538,7 @@
         <v>9800000</v>
       </c>
       <c r="D13" t="n">
-        <v>131588000</v>
+        <v>145588000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -2044,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3067,17 +3067,73 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>673</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>674</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>141172000</v>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>143722000</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3673,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3733000</v>
+        <v>4083000</v>
       </c>
     </row>
     <row r="5">
@@ -3657,7 +3713,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3950000</v>
+        <v>6150000</v>
       </c>
     </row>
     <row r="9">
@@ -3687,7 +3743,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141172000</v>
+        <v>143722000</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,26 +4130,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1550000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>145588000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>137588000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>17</v>
       </c>
-      <c r="E15" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>141172000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21416000</v>
+      <c r="E16" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>143722000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19866000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/SÓC TRĂNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1986,50 +1986,136 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>578</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>135788000</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>142788000</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>9800000</v>
       </c>
-      <c r="L19" t="n">
-        <v>145588000</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>137588000</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="L20" t="n">
+        <v>152588000</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>144588000</v>
+      </c>
+      <c r="P20" t="n">
         <v>8000000</v>
       </c>
-      <c r="Q19" t="n">
-        <v>145588000</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>600000</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="Q20" t="n">
+        <v>152588000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>650000</v>
+      </c>
+      <c r="V20" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -2044,7 +2130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,17 +3209,73 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>675</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>676</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>143722000</v>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>144057000</v>
       </c>
     </row>
   </sheetData>
@@ -3294,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3384,7 +3526,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37000000</v>
+        <v>44000000</v>
       </c>
       <c r="C7" t="n">
         <v>9000000</v>
@@ -3424,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>42500000</v>
+        <v>49500000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3588,22 +3730,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134288000</v>
+        <v>141288000</v>
       </c>
       <c r="C13" t="n">
         <v>9800000</v>
       </c>
       <c r="D13" t="n">
-        <v>145588000</v>
+        <v>152588000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -3713,7 +3855,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6150000</v>
+        <v>6485000</v>
       </c>
     </row>
     <row r="9">
@@ -3743,7 +3885,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143722000</v>
+        <v>144057000</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,26 +4297,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>335000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6665000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>145588000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>137588000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="B17" t="n">
+        <v>152588000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>144588000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="n">
         <v>26000000</v>
       </c>
-      <c r="F16" t="n">
-        <v>143722000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19866000</v>
+      <c r="F17" t="n">
+        <v>144057000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26531000</v>
       </c>
     </row>
   </sheetData>
